--- a/GenerateApp/tables_long_horiz/Data/2/source.xlsx
+++ b/GenerateApp/tables_long_horiz/Data/2/source.xlsx
@@ -11,6 +11,47 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,167 +110,94 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00FFFF"/>
+              <a:srgbClr val="FF00FF"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1993</c:v>
+                  <c:v>November 2011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1994</c:v>
+                  <c:v>December 2011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1995</c:v>
+                  <c:v>January 2012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1996</c:v>
+                  <c:v>February 2012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1997</c:v>
+                  <c:v>March 2012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1998</c:v>
+                  <c:v>April 2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1999</c:v>
+                  <c:v>May 2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>June 2012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2001</c:v>
+                  <c:v>July 2012</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2002</c:v>
+                  <c:v>August 2012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2003</c:v>
+                  <c:v>September 2012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>October 2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$24</c:f>
+              <c:f>Sheet1!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>524</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>483</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>391</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>520</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>584</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>552</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>467</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>568</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,14 +212,15 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -304,10 +273,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -614,202 +583,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>1993</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>524</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1994</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>371</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1995</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>480</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1996</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>538</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1997</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>483</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1998</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>391</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1999</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>520</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2000</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>584</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2001</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>512</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2002</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>552</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2003</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>467</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2004</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2005</v>
-      </c>
-      <c r="B13">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2007</v>
-      </c>
-      <c r="B15">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>2008</v>
-      </c>
-      <c r="B16">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2009</v>
-      </c>
-      <c r="B17">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2010</v>
-      </c>
-      <c r="B18">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>2011</v>
-      </c>
-      <c r="B19">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>2012</v>
-      </c>
-      <c r="B20">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2013</v>
-      </c>
-      <c r="B21">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>2015</v>
-      </c>
-      <c r="B23">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2016</v>
-      </c>
-      <c r="B24">
-        <v>568</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
